--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B9CA0-1530-499C-8746-3FFF75FF83CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC0556-1D4A-497F-A46A-3AA3D71E38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ResrvStndrd &gt; </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -211,13 +207,17 @@
   <si>
     <t>股東權益</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate &lt;= ,AND ResrvStndrd &gt; </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -816,11 +816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -832,7 +832,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
@@ -860,7 +860,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1038,15 +1038,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>27</v>
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1140,12 +1140,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1153,7 +1153,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1175,15 +1175,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC0556-1D4A-497F-A46A-3AA3D71E38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB5D90-B7FC-4452-8CAF-BB2CA05DD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,13 +211,25 @@
   <si>
     <t xml:space="preserve">AcDate &lt;= ,AND ResrvStndrd &gt; </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailableFunds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可運用資金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,10 +409,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -412,9 +424,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -427,9 +436,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,9 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -814,29 +817,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
@@ -847,79 +850,79 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -938,185 +941,205 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>8</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>14</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>7</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>16</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>16</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="14" spans="1:7">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>16</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="21">
+        <v>16</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="14">
         <v>6</v>
       </c>
     </row>
@@ -1140,20 +1163,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DB5D90-B7FC-4452-8CAF-BB2CA05DD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4009B-005D-4F9E-A217-355A1093FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="1332" windowWidth="22752" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -24,50 +24,50 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -89,19 +89,19 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>資金運用概況檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PosbleBorPsn</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AlrdyBorAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -120,43 +120,43 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>InnFundApl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ResrvStndrd</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PosbleBorAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acDateYearEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
@@ -189,52 +189,59 @@
     <t>最後更新人員</t>
   </si>
   <si>
-    <t>Decimal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>acDateFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>StockHoldersEqt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>股東權益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AcDate &lt;= ,AND ResrvStndrd &gt; </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AvailableFunds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可運用資金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -307,6 +314,13 @@
       <color theme="1"/>
       <name val="思源宋體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -385,103 +399,122 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{C2144738-3B60-4442-8799-27F17F392A2F}"/>
+    <cellStyle name="一般 2 2 2" xfId="5" xr:uid="{ABE8DE13-C34D-4B3D-ACE9-D8A1C939C04E}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{6C9D0176-A9A1-472C-803E-F6C7F4A6ADAF}"/>
+    <cellStyle name="一般 2 4" xfId="2" xr:uid="{38701005-245E-40BD-BBCC-A91111DAAB29}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,9 +530,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,9 +570,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,26 +605,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,26 +640,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -820,19 +819,19 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="7"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -955,8 +954,8 @@
       <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>47</v>
+      <c r="D9" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1046,10 +1045,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>27</v>
@@ -1066,13 +1065,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="E15" s="21">
         <v>16</v>
@@ -1153,7 +1152,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1168,10 +1167,10 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1200,17 +1199,17 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnFundApl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4009B-005D-4F9E-A217-355A1093FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFED86A-0D4B-4B66-80DD-23E8E5A44CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="1332" windowWidth="22752" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -222,13 +219,16 @@
   </si>
   <si>
     <t>DECIMALD</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,6 +492,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -503,9 +506,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -819,10 +819,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -834,11 +834,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
@@ -849,9 +849,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -862,11 +862,11 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
@@ -877,51 +877,51 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -954,15 +954,15 @@
       <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>55</v>
+      <c r="D9" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -1040,15 +1040,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>27</v>
@@ -1060,18 +1060,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="21">
         <v>16</v>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1091,52 +1091,52 @@
         <v>38</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="23" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="E17" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="14">
         <v>6</v>
@@ -1167,7 +1167,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1175,7 +1175,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1197,15 +1197,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
